--- a/Results/Excel/TC04_ReserveVaccine_Result.xlsx
+++ b/Results/Excel/TC04_ReserveVaccine_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3DB80-8F0F-4DA7-B294-EB8A77FF6548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23747A28-E8A0-4A82-80EA-108E5B9DE849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -144,6 +144,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -223,6 +230,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -532,7 +542,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -620,10 +630,10 @@
       <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="7" t="s">
@@ -659,10 +669,10 @@
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -698,10 +708,10 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -737,10 +747,10 @@
       <c r="I5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
@@ -778,10 +788,10 @@
       <c r="I6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
@@ -819,10 +829,10 @@
       <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -860,10 +870,10 @@
       <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -901,10 +911,10 @@
       <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
